--- a/СерийныеНомера.xlsx
+++ b/СерийныеНомера.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>UID Номенклатуры</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>80ef04af-0f1b-11e6-9f38-ac162da3ec8</t>
+  </si>
+  <si>
+    <t>54512IN</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,8 +505,8 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>54512</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
